--- a/Reports/FIO/CertificateOfTheDeceased/CertificateOfTheDeceased.xlsx
+++ b/Reports/FIO/CertificateOfTheDeceased/CertificateOfTheDeceased.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>t1</t>
   </si>
@@ -60,12 +60,6 @@
     <t>$t1['FIO']." ".$t1['birthday']. " г.р."</t>
   </si>
   <si>
-    <t>"м.р. ".$this-&gt;H['caption']</t>
-  </si>
-  <si>
-    <t>" ".$this-&gt;H['s_doc']." ".$this-&gt;H['n_doc']." от ".$this-&gt;H['data_create']." ".$this-&gt;H['issued_by']</t>
-  </si>
-  <si>
     <t>$this-&gt;H['name_organization_full'] . chr(10) . $this-&gt;H['address'] .chr(10).chr(10) . "от '____' _________".$this-&gt;H['year']." г.".chr(10) . "№ __________"</t>
   </si>
   <si>
@@ -84,17 +78,17 @@
     <t>$this-&gt;H['status_street'].". ".$this-&gt;H['name_street'].", д.".$this-&gt;H['house'].", кв.".$this-&gt;H['room']</t>
   </si>
   <si>
-    <t>Выдана в том, что умерший</t>
-  </si>
-  <si>
     <t>$this-&gt;H['FIO']." ".$this-&gt;H['birthday']." г.р."</t>
+  </si>
+  <si>
+    <t>"Выдана в том, что ".$this-&gt;H['MW']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +122,16 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,17 +186,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -207,9 +200,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -217,9 +207,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -229,31 +216,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -261,8 +230,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:N12"/>
+      <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,16 +583,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="6"/>
-      <c r="B1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,262 +603,248 @@
         <v>4</v>
       </c>
       <c r="K1" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="13"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12"/>
+    <row r="2" spans="1:18" ht="24" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="6"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="20"/>
+      <c r="F3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="6"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" customHeight="1">
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="F6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="6"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="8"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="M11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="I12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="4"/>
-      <c r="M12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1">
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="P13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="M23" s="2" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="M22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B1:D9"/>
+    <mergeCell ref="B1:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0" footer="0"/>
